--- a/교육/BwG_Univ_BXM온라인 개발실습_v1.5_배포.xlsx
+++ b/교육/BwG_Univ_BXM온라인 개발실습_v1.5_배포.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainc\OneDrive\교육_BXM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NohEul\Git Repository\BWG\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{F1661676-F22F-47BD-8FA7-DA8EC0552901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{6B78D60D-9601-4881-84EA-D6056F65884F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DAD9A5-BA90-44A4-9591-5A5ECB243DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layer" sheetId="15" r:id="rId1"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DpstStaffInfoSrchInVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DpstStaffInfoSrchOutVO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>selectStaffByMysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DpstStaffInfoSrchInVO(수신스테프정보input)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2571,23 +2571,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA4A2D5-ABE1-4443-9913-A1021DB7B21C}">
   <dimension ref="A18:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="1" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
@@ -2604,29 +2604,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2825EAA4-773D-46CE-9DAD-09C2F5938107}">
   <dimension ref="B3:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" customWidth="1"/>
+    <col min="5" max="5" width="31.09765625" customWidth="1"/>
+    <col min="6" max="6" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2641,78 +2644,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -2725,28 +2728,28 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2765,27 +2768,27 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" customWidth="1"/>
+    <col min="4" max="5" width="31.09765625" customWidth="1"/>
+    <col min="6" max="6" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2800,29 +2803,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2844,27 +2847,27 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" customWidth="1"/>
+    <col min="4" max="5" width="31.09765625" customWidth="1"/>
+    <col min="6" max="6" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2879,81 +2882,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2977,27 +2980,27 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="31.125" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="5" width="31.125" customWidth="1"/>
-    <col min="6" max="6" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.125" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" customWidth="1"/>
+    <col min="3" max="3" width="40.59765625" customWidth="1"/>
+    <col min="4" max="5" width="31.09765625" customWidth="1"/>
+    <col min="6" max="6" width="35.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3012,81 +3015,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
